--- a/PCB_Files/SMT_reference.xlsx
+++ b/PCB_Files/SMT_reference.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HAL9000/Dropbox (MIT)/DesktopMuonDetector/CosmicWatch/CosmicWatcher_v4/Supplementary Material/PCB_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HAL9000/Dropbox (MIT)/DesktopMuonDetector/CosmicWatch/GitHub/CosmicWatch-Desktop-Muon-Detector/PCB_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -863,7 +863,7 @@
   <dimension ref="B2:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -978,7 +978,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>101</v>
